--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>901831.5067119256</v>
+        <v>899130.2900892778</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673444</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11295368.32060654</v>
+        <v>11295551.59724683</v>
       </c>
     </row>
     <row r="11">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>68.11693918766147</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>48.47711506061704</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>92.73964154763158</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>75.00093456239584</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>52.21594625443465</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>185.1421734110669</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>111.0547383709187</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
         <v>192.7632183107638</v>
@@ -1038,10 +1038,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>99.97557609740556</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>134.3807354218354</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>35.44113016432316</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>31.00074821930685</v>
       </c>
       <c r="S7" t="n">
         <v>197.1876907596159</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>138.048140079212</v>
       </c>
       <c r="C8" t="n">
-        <v>217.3285893880922</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.830884450382</v>
+        <v>11.83349180859359</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151397</v>
+        <v>76.72779446896601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.9092264837461</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0681132513132</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.722493174780352</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436608</v>
+        <v>94.30836251344154</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282963</v>
+        <v>30.43165252365262</v>
       </c>
       <c r="S9" t="n">
-        <v>137.178970064727</v>
+        <v>137.2048826855192</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6772763323794</v>
+        <v>192.6828994016847</v>
       </c>
       <c r="U9" t="n">
-        <v>225.819171215429</v>
+        <v>225.8192629956679</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>149.829625053133</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.723675290410037</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6.614048074897927</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.0978607009904</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8965517281903</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2341465824415</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>354.301217102303</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184572</v>
+        <v>22.60777203238013</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615221</v>
+        <v>97.97552699114094</v>
       </c>
       <c r="T11" t="n">
-        <v>59.93923458837398</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530797</v>
+        <v>9.753166794035167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.6502311075613</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
-        <v>189.7415240061373</v>
+        <v>189.655441187015</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7712536040104</v>
+        <v>225.7698485525558</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905247</v>
+        <v>79.00824149146332</v>
       </c>
       <c r="S13" t="n">
-        <v>52.98484881234981</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>36.12932374479377</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>359.5517498754645</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1698,10 +1698,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.1983720868892</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>60.86846495359722</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.5285626279048</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.95073797956</v>
       </c>
     </row>
     <row r="20">
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
-        <v>3.814130455270528</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456788</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>140.9357387834172</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>144.6100405317612</v>
+        <v>102.1557845699812</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>26.70391688093233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3190,16 +3190,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716015</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>119.6760079449706</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987833667</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,10 +3478,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>40.62253010341671</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3667,16 +3667,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833835</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>147.2606364488707</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673025</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.981557645677</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>71.05846343488069</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>161.9163864599159</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="C2" t="n">
-        <v>161.9163864599159</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678512</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>672.2420264262262</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823975</v>
+        <v>603.4370373477802</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823975</v>
+        <v>603.4370373477802</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823975</v>
+        <v>414.0172523312953</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823975</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659128</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="X2" t="n">
-        <v>351.3361714764006</v>
+        <v>224.5974673148103</v>
       </c>
       <c r="Y2" t="n">
-        <v>161.9163864599159</v>
+        <v>224.5974673148103</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>484.9240438887989</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C3" t="n">
-        <v>310.4710146076719</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>676.9378076264288</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>487.5180226099438</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652795</v>
+        <v>298.0982375934589</v>
       </c>
       <c r="W3" t="n">
-        <v>750.1023486652795</v>
+        <v>298.0982375934589</v>
       </c>
       <c r="X3" t="n">
-        <v>674.3438289052837</v>
+        <v>108.6784525769739</v>
       </c>
       <c r="Y3" t="n">
-        <v>484.9240438887989</v>
+        <v>108.6784525769739</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.00204697330561</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949.3392845809428</v>
+        <v>1396.118167241172</v>
       </c>
       <c r="C5" t="n">
-        <v>949.3392845809428</v>
+        <v>1027.15565030076</v>
       </c>
       <c r="D5" t="n">
-        <v>949.3392845809428</v>
+        <v>1027.15565030076</v>
       </c>
       <c r="E5" t="n">
-        <v>949.3392845809428</v>
+        <v>641.3673977025157</v>
       </c>
       <c r="F5" t="n">
-        <v>538.3533797913353</v>
+        <v>230.3814929129082</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
         <v>43.36919653809306</v>
@@ -4571,7 +4571,7 @@
         <v>366.8168396232722</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711872</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
@@ -4601,16 +4601,16 @@
         <v>1782.718007305293</v>
       </c>
       <c r="V5" t="n">
-        <v>1451.655119961723</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W5" t="n">
-        <v>1339.478616556755</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="X5" t="n">
-        <v>1339.478616556755</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="Y5" t="n">
-        <v>949.3392845809428</v>
+        <v>1782.718007305293</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>513.2911934535864</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="C6" t="n">
-        <v>338.8381641724594</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="D6" t="n">
-        <v>189.9037545112081</v>
+        <v>339.4826453284327</v>
       </c>
       <c r="E6" t="n">
-        <v>189.9037545112081</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F6" t="n">
-        <v>43.36919653809306</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G6" t="n">
         <v>43.36919653809306</v>
@@ -4671,25 +4671,25 @@
         <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1734.238298972664</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T6" t="n">
-        <v>1539.52797744664</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U6" t="n">
-        <v>1311.426387579904</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V6" t="n">
-        <v>1076.274279348162</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W6" t="n">
-        <v>822.03692261996</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X6" t="n">
-        <v>721.0514922185403</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y6" t="n">
-        <v>513.2911934535864</v>
+        <v>339.4826453284327</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>61.70688273934483</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
         <v>43.36919653809306</v>
@@ -4744,31 +4744,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>466.1525394612431</v>
       </c>
       <c r="S7" t="n">
-        <v>321.1098614248255</v>
+        <v>266.9730538454695</v>
       </c>
       <c r="T7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="U7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="V7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>97.50600411744904</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1104.215959375213</v>
+        <v>867.9069811943068</v>
       </c>
       <c r="C8" t="n">
-        <v>884.6921317104734</v>
+        <v>498.944464253895</v>
       </c>
       <c r="D8" t="n">
-        <v>526.426433103723</v>
+        <v>140.6787656471445</v>
       </c>
       <c r="E8" t="n">
-        <v>140.6381805054787</v>
+        <v>140.6787656471445</v>
       </c>
       <c r="F8" t="n">
-        <v>133.6926797562752</v>
+        <v>133.733264897941</v>
       </c>
       <c r="G8" t="n">
-        <v>121.742291422556</v>
+        <v>121.7802428690586</v>
       </c>
       <c r="H8" t="n">
-        <v>121.742291422556</v>
+        <v>121.7802428690586</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941057</v>
+        <v>44.27742017313337</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8280559420296</v>
+        <v>156.5453885494321</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002233</v>
+        <v>375.5444889229407</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707925</v>
+        <v>684.1340000193454</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.640340937548</v>
+        <v>1059.168727391407</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733706</v>
+        <v>1444.885717117917</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.139187659507</v>
+        <v>1795.772071623106</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284332</v>
+        <v>2060.744456291607</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228514</v>
+        <v>2211.554935535259</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970529</v>
+        <v>2213.871008656668</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.050212970529</v>
+        <v>2213.871008656668</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.050212970529</v>
+        <v>2003.861688976117</v>
       </c>
       <c r="U8" t="n">
-        <v>2217.050212970529</v>
+        <v>1750.25753417681</v>
       </c>
       <c r="V8" t="n">
-        <v>2217.050212970529</v>
+        <v>1750.25753417681</v>
       </c>
       <c r="W8" t="n">
-        <v>1864.281557700415</v>
+        <v>1397.488878906696</v>
       </c>
       <c r="X8" t="n">
-        <v>1490.815799439335</v>
+        <v>1397.488878906696</v>
       </c>
       <c r="Y8" t="n">
-        <v>1490.815799439335</v>
+        <v>1007.349546930885</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>445.3603800403711</v>
+        <v>300.5157395101261</v>
       </c>
       <c r="C9" t="n">
-        <v>445.3603800403711</v>
+        <v>298.7758474143884</v>
       </c>
       <c r="D9" t="n">
-        <v>445.3603800403711</v>
+        <v>298.7758474143884</v>
       </c>
       <c r="E9" t="n">
-        <v>286.1229250349156</v>
+        <v>139.5383924089329</v>
       </c>
       <c r="F9" t="n">
-        <v>139.5883670618006</v>
+        <v>139.5383924089329</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5883670618006</v>
+        <v>139.5383924089329</v>
       </c>
       <c r="H9" t="n">
-        <v>44.34100425941057</v>
+        <v>44.27742017313337</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941057</v>
+        <v>44.27742017313337</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113494</v>
+        <v>92.32560606848435</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154159</v>
+        <v>252.6024334910151</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572538</v>
+        <v>514.4369485047779</v>
       </c>
       <c r="M9" t="n">
-        <v>840.409251044973</v>
+        <v>839.3423457618861</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738684</v>
+        <v>1187.255667013955</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074212</v>
+        <v>1483.308590376468</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566942</v>
+        <v>1701.58409561838</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257639</v>
+        <v>1797.576293952198</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285084</v>
+        <v>1766.837250999013</v>
       </c>
       <c r="S9" t="n">
-        <v>1630.554864058087</v>
+        <v>1628.24646040758</v>
       </c>
       <c r="T9" t="n">
-        <v>1435.931352611239</v>
+        <v>1433.617269092747</v>
       </c>
       <c r="U9" t="n">
-        <v>1207.831179666361</v>
+        <v>1205.517003440557</v>
       </c>
       <c r="V9" t="n">
-        <v>972.6790714346184</v>
+        <v>970.3648952088145</v>
       </c>
       <c r="W9" t="n">
-        <v>821.3360158253931</v>
+        <v>716.1275384806129</v>
       </c>
       <c r="X9" t="n">
-        <v>821.3360158253931</v>
+        <v>508.2760382750801</v>
       </c>
       <c r="Y9" t="n">
-        <v>613.5757170604392</v>
+        <v>300.5157395101261</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.7610849089319</v>
+        <v>44.27742017313337</v>
       </c>
       <c r="C10" t="n">
-        <v>345.8249019810251</v>
+        <v>44.27742017313337</v>
       </c>
       <c r="D10" t="n">
-        <v>339.144045339714</v>
+        <v>44.27742017313337</v>
       </c>
       <c r="E10" t="n">
-        <v>191.2309517573209</v>
+        <v>44.27742017313337</v>
       </c>
       <c r="F10" t="n">
-        <v>44.34100425941057</v>
+        <v>44.27742017313337</v>
       </c>
       <c r="G10" t="n">
-        <v>44.34100425941057</v>
+        <v>44.27742017313337</v>
       </c>
       <c r="H10" t="n">
-        <v>44.34100425941057</v>
+        <v>44.27742017313337</v>
       </c>
       <c r="I10" t="n">
-        <v>44.34100425941057</v>
+        <v>44.27742017313337</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941057</v>
+        <v>44.27742017313337</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016727</v>
+        <v>95.54660022226402</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810358</v>
+        <v>191.059297026468</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422655</v>
+        <v>295.0223269524045</v>
       </c>
       <c r="N10" t="n">
-        <v>405.0998157091241</v>
+        <v>404.3708743014476</v>
       </c>
       <c r="O10" t="n">
-        <v>485.951469271272</v>
+        <v>485.058867435924</v>
       </c>
       <c r="P10" t="n">
-        <v>536.0720553139728</v>
+        <v>535.0394137095393</v>
       </c>
       <c r="Q10" t="n">
-        <v>514.7610849089319</v>
+        <v>535.0394137095393</v>
       </c>
       <c r="R10" t="n">
-        <v>514.7610849089319</v>
+        <v>535.0394137095393</v>
       </c>
       <c r="S10" t="n">
-        <v>514.7610849089319</v>
+        <v>336.1540079234885</v>
       </c>
       <c r="T10" t="n">
-        <v>514.7610849089319</v>
+        <v>336.1540079234885</v>
       </c>
       <c r="U10" t="n">
-        <v>514.7610849089319</v>
+        <v>47.02860733516371</v>
       </c>
       <c r="V10" t="n">
-        <v>514.7610849089319</v>
+        <v>47.02860733516371</v>
       </c>
       <c r="W10" t="n">
-        <v>514.7610849089319</v>
+        <v>47.02860733516371</v>
       </c>
       <c r="X10" t="n">
-        <v>514.7610849089319</v>
+        <v>47.02860733516371</v>
       </c>
       <c r="Y10" t="n">
-        <v>514.7610849089319</v>
+        <v>47.02860733516371</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754457</v>
+        <v>1535.258832689356</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814045</v>
+        <v>1166.296315748944</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207295</v>
+        <v>1166.296315748944</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194429</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605878</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592066</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706888</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656952</v>
+        <v>704.5155104420323</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625328</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087829</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484039</v>
+        <v>2485.180661765428</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535292</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479991</v>
+        <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464057</v>
+        <v>3835.937563882246</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796033</v>
+        <v>3925.553311234596</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345374</v>
+        <v>3826.588132455666</v>
       </c>
       <c r="T11" t="n">
-        <v>3716.454668942976</v>
+        <v>3622.786021971446</v>
       </c>
       <c r="U11" t="n">
-        <v>3462.960727064504</v>
+        <v>3369.295305604054</v>
       </c>
       <c r="V11" t="n">
-        <v>3462.960727064504</v>
+        <v>3038.232418260483</v>
       </c>
       <c r="W11" t="n">
-        <v>3110.19207179439</v>
+        <v>2685.463762990369</v>
       </c>
       <c r="X11" t="n">
-        <v>3110.19207179439</v>
+        <v>2311.998004729289</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818579</v>
+        <v>1921.858672753478</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5522947932185</v>
+        <v>941.5530399535777</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0992655120915</v>
+        <v>767.1000106724507</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1648558508402</v>
+        <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453848</v>
+        <v>458.928146005744</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3935880326289</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390851</v>
+        <v>88.36274985503049</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592066</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592066</v>
+        <v>196.8120623792131</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335446</v>
+        <v>477.1621322376509</v>
       </c>
       <c r="L12" t="n">
-        <v>503.2284887929972</v>
+        <v>900.449939664961</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.185054749525</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1546.994364450734</v>
+        <v>1518.698809735872</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783257</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
-        <v>2559.377995458575</v>
+        <v>2558.889669173201</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.478772117604</v>
+        <v>2434.391145691522</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.8206670609</v>
+        <v>2242.819992977365</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.768895743717</v>
+        <v>2014.769640904077</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.616787511975</v>
+        <v>1779.617532672334</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.379430783773</v>
+        <v>1525.380175944132</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.52793057824</v>
+        <v>1317.5286757386</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.767631813286</v>
+        <v>1109.768376973646</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>835.7893828380006</v>
+        <v>395.360342734992</v>
       </c>
       <c r="C13" t="n">
-        <v>666.8531999100937</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="D13" t="n">
-        <v>516.7365604977579</v>
+        <v>226.4241598070851</v>
       </c>
       <c r="E13" t="n">
-        <v>368.8234669153646</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="F13" t="n">
-        <v>221.9335194174544</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174544</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592066</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592066</v>
+        <v>78.51106622469193</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758647</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648141</v>
+        <v>368.4550473457708</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344803</v>
+        <v>717.5002252888924</v>
       </c>
       <c r="M13" t="n">
-        <v>1086.208595376939</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925581</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>2003.223417620178</v>
+        <v>1888.302075370157</v>
       </c>
       <c r="T13" t="n">
-        <v>1782.332085054618</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1782.332085054618</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1527.647596848731</v>
+        <v>1123.712823154605</v>
       </c>
       <c r="W13" t="n">
-        <v>1238.23042681177</v>
+        <v>834.2956531176442</v>
       </c>
       <c r="X13" t="n">
-        <v>1238.23042681177</v>
+        <v>797.8013867087618</v>
       </c>
       <c r="Y13" t="n">
-        <v>1017.43784766824</v>
+        <v>577.0088075652317</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>424.3593983639617</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516142</v>
+        <v>424.3593983639617</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>1016.377752616089</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.98943211006</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2097.865907110254</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1018.438627038651</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>849.5024441107437</v>
+        <v>389.8182101363266</v>
       </c>
       <c r="D16" t="n">
-        <v>699.385804698408</v>
+        <v>239.7015707239908</v>
       </c>
       <c r="E16" t="n">
-        <v>551.472711116015</v>
+        <v>239.7015707239908</v>
       </c>
       <c r="F16" t="n">
-        <v>404.5827636181048</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G16" t="n">
-        <v>237.3866643329848</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580259</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580259</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.3616186032</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947398</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1938.286391947398</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1648.869221910438</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1420.87967101242</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1200.08709186889</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>538.7363435406112</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,13 +5674,13 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949674</v>
+        <v>720.3848083708509</v>
       </c>
     </row>
     <row r="20">
@@ -5753,22 +5753,22 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.574735228845</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246299</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>701.3802915967231</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.96493935487</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5519571452614</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>991.7436897307816</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C25" t="n">
-        <v>822.8075068028747</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>672.690867390539</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>524.7777738081459</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>377.8878263102356</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1394.184733704551</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y25" t="n">
-        <v>1173.392154561021</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6306,25 +6306,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.7084350851669</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C28" t="n">
-        <v>696.7084350851669</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1099.149479058937</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y28" t="n">
-        <v>878.3568999154066</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.192580311172</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6625,7 +6625,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,7 +6643,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6695,31 +6695,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327654</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048585</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925228</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101297</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
         <v>175.9033664000583</v>
@@ -6859,49 +6859,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.4026036630052</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,19 +7011,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876685</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711975</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888045</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908942</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1936.428221820188</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V37" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179082</v>
       </c>
     </row>
     <row r="38">
@@ -7254,22 +7254,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135293</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856224</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>550.6376870732868</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998288</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,7 +7333,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908933</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908933</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7640,28 +7640,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7673,25 +7673,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1022.530292372932</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C46" t="n">
-        <v>853.5941094450252</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D46" t="n">
-        <v>703.4774700326893</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,7 +7822,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.960887244719</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1424.971336346702</v>
+        <v>916.2946447138403</v>
       </c>
       <c r="Y46" t="n">
-        <v>1204.178757203172</v>
+        <v>695.50206557031</v>
       </c>
     </row>
   </sheetData>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>27.6291529699588</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>141.9995857660752</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992738</v>
+        <v>89.71507747034033</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.2498401796871</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>189.5803316442434</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372931</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>64.04844901173867</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>79.42624789262666</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>65.30341755403245</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253483</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
-        <v>144.8013425629418</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345294904</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>24.58839950885158</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>4.005432486451173</v>
+        <v>46.45968844823116</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>191.8807364711625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,16 +25078,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>25.74504007796061</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303787</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,10 +25366,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>245.5619442858275</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393049</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>104.8770068749573</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345295081</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>75.37549921168848</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893745.7482895708</v>
+        <v>899105.9419519419</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>983214.5747883032</v>
+        <v>977854.3811259327</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.5747883031</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>983214.5747883032</v>
+        <v>983214.574788303</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.9734253556</v>
+      </c>
+      <c r="C2" t="n">
         <v>451572.9734253557</v>
       </c>
-      <c r="C2" t="n">
-        <v>451572.9734253556</v>
-      </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="E2" t="n">
-        <v>402924.0843509175</v>
+        <v>405380.8397795044</v>
       </c>
       <c r="F2" t="n">
+        <v>441473.874400917</v>
+      </c>
+      <c r="G2" t="n">
+        <v>443930.6298295032</v>
+      </c>
+      <c r="H2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="J2" t="n">
+        <v>443930.6298295034</v>
+      </c>
+      <c r="K2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="L2" t="n">
         <v>443930.6298295035</v>
       </c>
-      <c r="H2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="I2" t="n">
-        <v>443930.6298295036</v>
-      </c>
-      <c r="J2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="K2" t="n">
-        <v>443930.6298295035</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>443930.6298295034</v>
       </c>
-      <c r="M2" t="n">
-        <v>443930.6298295035</v>
-      </c>
       <c r="N2" t="n">
-        <v>443930.6298295037</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295031</v>
+        <v>443930.6298295032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861777</v>
+        <v>392510.2442861773</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264204</v>
+        <v>11460.51367737918</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674493</v>
+        <v>408312.2999680398</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704299</v>
+        <v>166521.3471051365</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854467</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487779</v>
+        <v>91259.95686487772</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.44734994962</v>
+        <v>2873.290350199818</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931117</v>
+        <v>106639.5191329075</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202386</v>
+        <v>43782.4065584887</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888976</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607421</v>
+        <v>171039.3658295525</v>
       </c>
       <c r="E4" t="n">
-        <v>15331.22144723313</v>
+        <v>15337.51904957362</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15430.10738565431</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687966</v>
@@ -26436,13 +26436,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687968</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26454,10 +26454,10 @@
         <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687971</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.75444404162</v>
+        <v>86091.2914867291</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673856</v>
+        <v>86093.7221621472</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-475306.2943412332</v>
+        <v>-475306.2943412334</v>
       </c>
       <c r="C6" t="n">
-        <v>-200339.342805592</v>
+        <v>-200339.3428055916</v>
       </c>
       <c r="D6" t="n">
-        <v>182338.4801879302</v>
+        <v>182981.802431695</v>
       </c>
       <c r="E6" t="n">
-        <v>-93488.57893115051</v>
+        <v>-104572.6656441011</v>
       </c>
       <c r="F6" t="n">
-        <v>138063.1912282867</v>
+        <v>159334.3864007222</v>
       </c>
       <c r="G6" t="n">
-        <v>327371.4599987167</v>
+        <v>316169.4858377014</v>
       </c>
       <c r="H6" t="n">
-        <v>327371.4599987167</v>
+        <v>327336.7220732808</v>
       </c>
       <c r="I6" t="n">
-        <v>327371.4599987168</v>
+        <v>327336.7220732809</v>
       </c>
       <c r="J6" t="n">
-        <v>278306.5152701721</v>
+        <v>278271.7773447363</v>
       </c>
       <c r="K6" t="n">
-        <v>236111.5031338389</v>
+        <v>236076.7652084031</v>
       </c>
       <c r="L6" t="n">
-        <v>324297.0126487669</v>
+        <v>324463.4317230812</v>
       </c>
       <c r="M6" t="n">
-        <v>223962.199105605</v>
+        <v>220697.2029403734</v>
       </c>
       <c r="N6" t="n">
-        <v>277531.885866693</v>
+        <v>283554.3155147921</v>
       </c>
       <c r="O6" t="n">
-        <v>327371.4599987167</v>
+        <v>324313.424096056</v>
       </c>
       <c r="P6" t="n">
-        <v>327371.4599987163</v>
+        <v>327336.7220732808</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573208</v>
+        <v>862.9748695021897</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261633</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426322</v>
+        <v>553.4677521641671</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490081</v>
+        <v>981.388327808649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247795</v>
+        <v>305.2407236247793</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319636669</v>
+        <v>9.264204964505552</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576287</v>
+        <v>349.1953979923671</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267243</v>
+        <v>145.8707812218286</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598435</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646886</v>
+        <v>11.35279543800379</v>
       </c>
       <c r="E4" t="n">
-        <v>414.958270706376</v>
+        <v>427.9205756444819</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506402</v>
+        <v>178.756962517357</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598435</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646886</v>
+        <v>11.35279543800379</v>
       </c>
       <c r="M4" t="n">
-        <v>414.958270706376</v>
+        <v>427.9205756444819</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506402</v>
+        <v>178.756962517357</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598435</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646886</v>
+        <v>11.35279543800379</v>
       </c>
       <c r="M4" t="n">
-        <v>414.958270706376</v>
+        <v>427.9205756444819</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506402</v>
+        <v>178.756962517357</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>90.65887400239163</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871021</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>321.253985617852</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>73.79354210223576</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.3381812437708</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310515</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>130.7720506410816</v>
+        <v>18.24739803715735</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098449</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.2051017684968</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>68.68604055159722</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27591,7 +27591,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>234.0491352390156</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>226.7285614325598</v>
       </c>
       <c r="H5" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>238.1862303464944</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,19 +27695,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>94.50081326185514</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>105.7974091060719</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>71.30196035546899</v>
       </c>
     </row>
     <row r="7">
@@ -27792,10 +27792,10 @@
         <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>73.71303528276036</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>77.07210304633175</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>244.6857015842686</v>
       </c>
       <c r="C8" t="n">
-        <v>147.9443023829153</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>303.918686916365</v>
+        <v>303.9453895236494</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731852</v>
+        <v>129.9646330484317</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>170.9860058135354</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27941,16 +27941,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4859120069138</v>
+        <v>135.4873070665456</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433991</v>
+        <v>35.61339202271519</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27992,10 +27992,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>101.8653581077866</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>177.1083048915273</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>142.0014249433144</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.433625596421</v>
+        <v>166.4347951675532</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3808817867763</v>
+        <v>148.3912803373881</v>
       </c>
       <c r="I10" t="n">
-        <v>108.61659997434</v>
+        <v>108.6517721680248</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332426</v>
+        <v>16.97319914237106</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>21.19579633461521</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313612</v>
+        <v>107.321691302451</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930955</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2914415359382</v>
+        <v>221.2964387944122</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29937,7 +29937,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753046</v>
+        <v>3.469245706541463</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940214</v>
+        <v>35.52941259211777</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788919</v>
+        <v>133.7480951014399</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545841</v>
+        <v>294.4478927855738</v>
       </c>
       <c r="K8" t="n">
-        <v>441.6327292855806</v>
+        <v>441.301063543474</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160167</v>
+        <v>547.4729918350424</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563187</v>
+        <v>609.1691901687492</v>
       </c>
       <c r="N8" t="n">
-        <v>619.4914219765484</v>
+        <v>619.0261845324602</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639101</v>
+        <v>584.5288725380384</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278193</v>
+        <v>498.881869157796</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463508</v>
+        <v>374.6395072922797</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787937</v>
+        <v>217.9250056135354</v>
       </c>
       <c r="S8" t="n">
-        <v>79.1148517130601</v>
+        <v>79.05543653781368</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095646</v>
+        <v>15.18662308038526</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802436</v>
+        <v>0.277539656523317</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857605156296879</v>
+        <v>1.856210096665087</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94055506213039</v>
+        <v>17.92708172305493</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566009</v>
+        <v>63.90898797728481</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148731</v>
+        <v>175.3711477730818</v>
       </c>
       <c r="K9" t="n">
-        <v>299.962495786764</v>
+        <v>299.7372242496426</v>
       </c>
       <c r="L9" t="n">
-        <v>403.336593256478</v>
+        <v>403.033687874584</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722398</v>
+        <v>470.3213038786933</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668799</v>
+        <v>482.7693093076448</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510385</v>
+        <v>441.6396013762762</v>
       </c>
       <c r="P9" t="n">
-        <v>354.72111094234</v>
+        <v>354.4547157394937</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230893</v>
+        <v>236.9435905848277</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111343</v>
+        <v>115.2478514403113</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911086</v>
+        <v>34.47828841831859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442241</v>
+        <v>7.481829293136906</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458473</v>
+        <v>0.1221190853069137</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037791</v>
+        <v>1.556184190905588</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84629072066328</v>
+        <v>13.83589217005151</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291832</v>
+        <v>46.79870275923351</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760718</v>
+        <v>110.0222222970251</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258452</v>
+        <v>180.8003087252128</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306004</v>
+        <v>231.3621478006363</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801603</v>
+        <v>243.938945488955</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762015</v>
+        <v>238.1386225955798</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833054</v>
+        <v>219.9595618200008</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377343</v>
+        <v>188.2134043255267</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284554</v>
+        <v>130.3092052948306</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580831</v>
+        <v>69.9717000747185</v>
       </c>
       <c r="S10" t="n">
-        <v>27.14042874387678</v>
+        <v>27.12004630878192</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343289</v>
+        <v>6.649150633869328</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842508</v>
+        <v>0.0848827740493958</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.83313060186914</v>
+        <v>4.873046301485652</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639234</v>
+        <v>49.90608543508994</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203913</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975121</v>
+        <v>619.869763472606</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544649</v>
+        <v>769.0032542216977</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954552</v>
+        <v>855.6642913857431</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118016</v>
+        <v>869.5098341898392</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956796</v>
+        <v>821.0534800294413</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620352</v>
+        <v>700.7501494615141</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825965</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495311</v>
+        <v>0.3898437041188521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469203</v>
+        <v>89.76921320596483</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598377</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>288.8118731732607</v>
+        <v>566.1178216256419</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821474</v>
+        <v>660.6327957845334</v>
       </c>
       <c r="N12" t="n">
-        <v>672.56323703405</v>
+        <v>237.3367583732538</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924469</v>
+        <v>620.3452877431813</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383441</v>
+        <v>497.8817840205473</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047537</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627649</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798448</v>
+        <v>65.73539745691795</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>342.6467528263711</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811702</v>
+        <v>98.28514988570616</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493536</v>
+        <v>38.09394102929614</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377476</v>
+        <v>9.33967255282691</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>536.3866168795495</v>
+        <v>671.3535095519902</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>547.6926421044561</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>552.0015769888928</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>248.0319961154043</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,10 +33026,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>248.0319961154043</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,19 +33494,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2467565146294</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33974,25 +33974,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278978</v>
+        <v>113.4019882588875</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406</v>
+        <v>221.2112124984935</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460295</v>
+        <v>311.7065768650552</v>
       </c>
       <c r="M8" t="n">
-        <v>379.280786229046</v>
+        <v>378.8229569414765</v>
       </c>
       <c r="N8" t="n">
-        <v>390.0783583799575</v>
+        <v>389.6131209358693</v>
       </c>
       <c r="O8" t="n">
-        <v>354.8699716422234</v>
+        <v>354.4306611163516</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725498</v>
+        <v>267.6488734025265</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719013</v>
+        <v>152.3338174178302</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661569</v>
+        <v>2.33946779940328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820642</v>
+        <v>48.53352110641512</v>
       </c>
       <c r="K9" t="n">
-        <v>162.121056812405</v>
+        <v>161.8957852752836</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766038</v>
+        <v>264.4793080947098</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502214</v>
+        <v>328.187269956675</v>
       </c>
       <c r="N9" t="n">
-        <v>351.7904289835466</v>
+        <v>351.4275972243115</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065941</v>
+        <v>299.0433569318318</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280097</v>
+        <v>220.4803083251635</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706778</v>
+        <v>96.96181649880614</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530979</v>
+        <v>51.78705055467742</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936212</v>
+        <v>96.47747151939797</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325553</v>
+        <v>105.0131615413499</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109683</v>
+        <v>110.4530781303466</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146256</v>
+        <v>81.50302336815801</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858664</v>
+        <v>50.48540027637904</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525316</v>
+        <v>399.7799124276254</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681825</v>
+        <v>625.3180581584704</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214251</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739929</v>
+        <v>590.9552686077545</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067656</v>
+        <v>469.5171537062445</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081469</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553051</v>
+        <v>90.52095692156621</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854787</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>150.2574933933865</v>
+        <v>427.5634418457677</v>
       </c>
       <c r="M12" t="n">
-        <v>513.087440360129</v>
+        <v>518.498761862515</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507167</v>
+        <v>105.9950462899205</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480024</v>
+        <v>477.7490432987369</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240139</v>
+        <v>363.9073766062171</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187322</v>
+        <v>192.8390133211632</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936578</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186264</v>
+        <v>61.1825931670185</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>382.2306297882117</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>333.5494446190458</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776297</v>
+        <v>96.87566713998369</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>405.0449047962162</v>
+        <v>540.0117974686569</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>405.5586081824378</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>418.0271695745625</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>110.1905571410453</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,19 +37142,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>108.4053175402704</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010456</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37622,25 +37622,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
